--- a/자작/BeatFighter/Sheets/SkillTable.xlsx
+++ b/자작/BeatFighter/Sheets/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D03A398-D4B1-407C-B32A-6C486D4DB9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2965D3-7155-4117-BE24-1A2BA3CE8680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$L$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>$$SkillTable$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,22 @@
   </si>
   <si>
     <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소서리스 기본공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$duration$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$tickTime$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -427,12 +443,12 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -446,25 +462,31 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -474,12 +496,26 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J2" xr:uid="{E94A2D6A-C2A7-4D24-964A-540CA359D378}"/>
+  <autoFilter ref="A2:L2" xr:uid="{E94A2D6A-C2A7-4D24-964A-540CA359D378}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/자작/BeatFighter/Sheets/SkillTable.xlsx
+++ b/자작/BeatFighter/Sheets/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2965D3-7155-4117-BE24-1A2BA3CE8680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EC2233-D7B6-4A52-934A-6FBE1E73F241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/자작/BeatFighter/Sheets/SkillTable.xlsx
+++ b/자작/BeatFighter/Sheets/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EC2233-D7B6-4A52-934A-6FBE1E73F241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5A343-399D-4202-9B6D-7ED6CCEBD63B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,6 +510,9 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>

--- a/자작/BeatFighter/Sheets/SkillTable.xlsx
+++ b/자작/BeatFighter/Sheets/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5A343-399D-4202-9B6D-7ED6CCEBD63B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B259FF-D4A3-4C6E-A39C-2AD2042F68C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>$$SkillTable$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>$tickTime$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소서리스 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -517,6 +521,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>50101</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:L2" xr:uid="{E94A2D6A-C2A7-4D24-964A-540CA359D378}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/자작/BeatFighter/Sheets/SkillTable.xlsx
+++ b/자작/BeatFighter/Sheets/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B259FF-D4A3-4C6E-A39C-2AD2042F68C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B284053-2742-49FA-B513-BBCCA8948373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$M$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>$$SkillTable$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>소서리스 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닌자 기본공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$skillType$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -447,12 +459,12 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -460,37 +472,40 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -498,13 +513,16 @@
         <v>50000</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -512,16 +530,19 @@
         <v>50100</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -529,23 +550,43 @@
         <v>50101</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.1</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>50200</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L2" xr:uid="{E94A2D6A-C2A7-4D24-964A-540CA359D378}"/>
+  <autoFilter ref="A2:M2" xr:uid="{E94A2D6A-C2A7-4D24-964A-540CA359D378}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/자작/BeatFighter/Sheets/SkillTable.xlsx
+++ b/자작/BeatFighter/Sheets/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B284053-2742-49FA-B513-BBCCA8948373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A364C-22E6-4636-A4E0-465061543259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -518,6 +518,9 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
       <c r="H3" s="1">
         <v>2</v>
       </c>

--- a/자작/BeatFighter/Sheets/SkillTable.xlsx
+++ b/자작/BeatFighter/Sheets/SkillTable.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A364C-22E6-4636-A4E0-465061543259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67388327-710F-427B-BCD5-C2D2986C226B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillSetTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillSetTable!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillTable!$A$2:$M$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>$$SkillTable$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +113,50 @@
   </si>
   <si>
     <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$SkillSetTable$$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소서리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닌자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$skillID0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$skillID1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$skillID2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$skillID3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,13 +206,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,27 +568,24 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>50100</v>
+        <v>50001</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -547,36 +596,30 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>50101</v>
+        <v>50002</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.5</v>
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>50200</v>
+        <v>50003</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -584,12 +627,179 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
       <c r="H6" s="1">
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>50100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50101</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50200</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:M2" xr:uid="{E94A2D6A-C2A7-4D24-964A-540CA359D378}"/>
+  <autoFilter ref="A2:M2" xr:uid="{E94A2D6A-C2A7-4D24-964A-540CA359D378}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M9">
+      <sortCondition ref="B2"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBF63EE-0598-4090-949F-175B237A1B6A}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="15.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50100</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50101</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50100</v>
+      </c>
+      <c r="F4" s="3">
+        <v>50101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50200</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:F2" xr:uid="{56662687-93BF-42CF-A8ED-9694718D292F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/자작/BeatFighter/Sheets/SkillTable.xlsx
+++ b/자작/BeatFighter/Sheets/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67388327-710F-427B-BCD5-C2D2986C226B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F71BC5-739A-4329-92BA-7330F3E85E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>$$SkillTable$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>닌자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$skillID0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +153,14 @@
   </si>
   <si>
     <t>Attack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트닌자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트소서리스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +507,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -562,13 +566,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -579,13 +583,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>50001</v>
+        <v>40001</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -599,13 +603,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>50002</v>
+        <v>40002</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
@@ -619,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>50003</v>
+        <v>40003</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -639,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>50100</v>
+        <v>40100</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -659,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>50101</v>
+        <v>40101</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -685,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>50200</v>
+        <v>40200</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -711,10 +715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBF63EE-0598-4090-949F-175B237A1B6A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -735,16 +739,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -752,19 +756,19 @@
         <v>22</v>
       </c>
       <c r="B3" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C3" s="3">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D3" s="3">
-        <v>50001</v>
+        <v>40001</v>
       </c>
       <c r="E3" s="3">
-        <v>50002</v>
+        <v>40002</v>
       </c>
       <c r="F3" s="3">
-        <v>50003</v>
+        <v>40003</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -772,30 +776,41 @@
         <v>23</v>
       </c>
       <c r="B4" s="3">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="C4" s="3">
-        <v>50100</v>
+        <v>40100</v>
       </c>
       <c r="D4" s="3">
-        <v>50101</v>
+        <v>40101</v>
       </c>
       <c r="E4" s="3">
-        <v>50100</v>
+        <v>40100</v>
       </c>
       <c r="F4" s="3">
-        <v>50101</v>
+        <v>40101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="C5" s="3">
-        <v>50200</v>
+        <v>40200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>30001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40100</v>
       </c>
     </row>
   </sheetData>

--- a/자작/BeatFighter/Sheets/SkillTable.xlsx
+++ b/자작/BeatFighter/Sheets/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F71BC5-739A-4329-92BA-7330F3E85E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5AFB76-AE98-4B38-8F7C-8D0A79687AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillSetTable!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillTable!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillTable!$A$2:$Q$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>$$SkillTable$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,22 @@
   </si>
   <si>
     <t>테스트소서리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$atkMulPerLevel$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$atkAddPerLevel$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$defMulPerLevel$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$defAddPerLevel$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,12 +531,12 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -555,13 +571,25 @@
         <v>6</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -577,8 +605,11 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -597,8 +628,11 @@
       <c r="H4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -617,8 +651,11 @@
       <c r="I5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -637,8 +674,11 @@
       <c r="H6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -657,8 +697,11 @@
       <c r="H7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -683,8 +726,11 @@
       <c r="H8" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -700,10 +746,13 @@
       <c r="H9" s="1">
         <v>2</v>
       </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M2" xr:uid="{E94A2D6A-C2A7-4D24-964A-540CA359D378}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M9">
+  <autoFilter ref="A2:Q2" xr:uid="{E94A2D6A-C2A7-4D24-964A-540CA359D378}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q9">
       <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>
@@ -717,7 +766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBF63EE-0598-4090-949F-175B237A1B6A}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/자작/BeatFighter/Sheets/SkillTable.xlsx
+++ b/자작/BeatFighter/Sheets/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5AFB76-AE98-4B38-8F7C-8D0A79687AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436A7005-BC7E-4B28-8A45-8C8EADBD0649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>$$SkillTable$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,14 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트닌자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트소서리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$atkMulPerLevel$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,6 +169,22 @@
   </si>
   <si>
     <t>$defAddPerLevel$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 기본공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스_소서리스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,9 +528,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -571,16 +579,16 @@
         <v>6</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>7</v>
@@ -747,6 +755,23 @@
         <v>2</v>
       </c>
       <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>41000</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -766,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBF63EE-0598-4090-949F-175B237A1B6A}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -842,21 +867,21 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3">
         <v>30000</v>
       </c>
       <c r="C5" s="3">
-        <v>40200</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3">
-        <v>30001</v>
+        <v>39000</v>
       </c>
       <c r="C6" s="3">
         <v>40100</v>

--- a/자작/BeatFighter/Sheets/SkillTable.xlsx
+++ b/자작/BeatFighter/Sheets/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436A7005-BC7E-4B28-8A45-8C8EADBD0649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C0B1A1-C876-46FF-9A01-03B9680DF892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SkillSetTable!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillTable!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillTable!$A$2:$R$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>$$SkillTable$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,18 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attack0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$atkMulPerLevel$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,6 +173,34 @@
   </si>
   <si>
     <t>보스_소서리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$unlockLevel$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$skillID4$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -539,12 +555,12 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -558,46 +574,49 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -608,16 +627,19 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -628,19 +650,19 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -651,19 +673,22 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>5</v>
       </c>
       <c r="I5" s="1">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -674,76 +699,79 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>40100</v>
+        <v>40004</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>40101</v>
+        <v>40100</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>40200</v>
+        <v>40101</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -751,33 +779,71 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
       <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>41000</v>
+        <v>40200</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="1">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1">
+        <v>41000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q2" xr:uid="{E94A2D6A-C2A7-4D24-964A-540CA359D378}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q9">
+  <autoFilter ref="A2:R2" xr:uid="{E94A2D6A-C2A7-4D24-964A-540CA359D378}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R11">
       <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>
@@ -789,10 +855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBF63EE-0598-4090-949F-175B237A1B6A}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,12 +866,12 @@
     <col min="1" max="16384" width="15.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -824,8 +890,11 @@
       <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -844,8 +913,11 @@
       <c r="F3" s="3">
         <v>40003</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3">
+        <v>40004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -865,9 +937,9 @@
         <v>40101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>30000</v>
@@ -876,9 +948,9 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3">
         <v>39000</v>

--- a/자작/BeatFighter/Sheets/SkillTable.xlsx
+++ b/자작/BeatFighter/Sheets/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C0B1A1-C876-46FF-9A01-03B9680DF892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321174AA-25AB-4E2D-938E-06C5896B7DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스_소서리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,6 +197,10 @@
   </si>
   <si>
     <t>$skillID4$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스_킹슬라임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -627,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -650,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -858,7 +858,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -891,7 +891,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -950,13 +950,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3">
         <v>39000</v>
       </c>
       <c r="C6" s="3">
-        <v>40100</v>
+        <v>41000</v>
       </c>
     </row>
   </sheetData>
